--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf15.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf15.xlsx
@@ -488,22 +488,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Os Estados Partes têm o direito de acordar a solução de uma controvérsia por quaisquer meios pacíficos de sua própria escolha a qualquer momento.</t>
+          <t>Os Estados Partes têm a obrigação de solucionar qualquer controvérsia relativa à interpretação da Convenção por meios pacíficos.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Uma vez surgida uma controvérsia, os Estados são obrigados a seguir estritamente os tribunais indicados na Convenção, sendo proibido escolher outros meios.</t>
+          <t>Os Estados Partes podem solucionar controvérsias relativas à Convenção por meio do uso de força, caso a diplomacia falhe.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O Artigo 280 garante o direito de escolha dos meios pacíficos pelas partes a qualquer momento.</t>
+          <t>Conforme o **art. 279**, os Estados devem solucionar controvérsias por meios pacíficos, em conformidade com a Carta da ONU.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -522,22 +522,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Os procedimentos da Parte XV aplicam-se apenas se não tiver sido alcançada solução por meio escolhido pelas partes e se o acordo não excluir outros procedimentos.</t>
+          <t>As disposições da Parte XV não prejudicam o direito dos Estados Partes de acordarem a solução de uma controvérsia por qualquer meio pacífico de sua escolha.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Os procedimentos compulsórios da Parte XV aplicam-se imediatamente a qualquer controvérsia, anulando qualquer tentativa prévia de negociação direta.</t>
+          <t>A Parte XV impõe procedimentos rígidos que anulam o direito dos Estados de escolherem outros meios pacíficos para solucionar suas controvérsias.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O Artigo 281 estabelece a subsidiariedade dos procedimentos da Parte XV em relação à escolha das partes.</t>
+          <t>Segundo o **art. 280**, nenhuma disposição prejudica o direito das partes de acordarem a solução por quaisquer meios pacíficos de sua escolha.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -556,22 +556,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Os Estados Partes devem solucionar qualquer controvérsia relativa à Convenção por meios pacíficos, conforme a Carta das Nações Unidas.</t>
+          <t>Se as partes acordaram um prazo para solucionar a controvérsia, os procedimentos da Parte XV só se aplicam após expirado esse prazo.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Os Estados Partes podem recorrer ao uso da força militar para resolver controvérsias de interpretação da Convenção se as negociações falharem.</t>
+          <t>Os procedimentos da Parte XV aplicam-se imediatamente, independentemente de qualquer prazo acordado pelas partes para solução por outros meios.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Artigo 279 impõe a obrigação de solução por meios pacíficos.</t>
+          <t>De acordo com o **art. 281, parágrafo 2º**, se as partes acordaram num prazo, o disposto no parágrafo 1º só será aplicado depois de expirado esse prazo.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -590,22 +590,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Quando surge uma controvérsia, as partes devem proceder sem demora a uma troca de opiniões para solucioná-la por negociação ou outros meios.</t>
+          <t>Se as partes ajustarem um acordo que submeta a controvérsia a um procedimento com decisão obrigatória, este prevalece sobre a Parte XV.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ao surgir uma controvérsia, a parte afetada deve imediatamente submeter o caso ao tribunal internacional sem necessidade de comunicação prévia.</t>
+          <t>Os procedimentos previstos na Parte XV prevalecem sempre sobre quaisquer acordos gerais, regionais ou bilaterais firmados entre as partes.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O Artigo 283 obriga a troca de opiniões sem demora.</t>
+          <t>O **art. 282** estabelece que procedimentos conducentes a decisão obrigatória previstos em outros acordos serão aplicados em lugar dos previstos na Parte XV.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -624,22 +624,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O procedimento de conciliação é facultativo: uma parte convida a outra e o processo só ocorre se o convite for aceito.</t>
+          <t>Quando surge uma controvérsia, as partes devem proceder sem demora a uma troca de opiniões para solucioná-la por negociação ou outros meios.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>O procedimento de conciliação é obrigatório e automático para todas as controvérsias, independentemente da vontade da outra parte.</t>
+          <t>A troca de opiniões entre as partes é facultativa e só deve ocorrer após o início formal de um processo judicial.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Artigo 284 define a conciliação baseada em convite e aceitação.</t>
+          <t>Conforme o **art. 283, parágrafo 1º**, as partes devem proceder sem demora a uma troca de opiniões tendo em vista solucionar a controvérsia.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -658,22 +658,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Um Estado pode escolher por declaração escrita um ou mais meios, como o Tribunal Internacional do Direito do Mar ou a Corte Internacional de Justiça.</t>
+          <t>Um Estado Parte pode convidar outro a submeter a controvérsia à conciliação, mas o procedimento termina se o convite não for aceito.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A única opção de tribunal permitida pela Convenção é a Corte Internacional de Justiça, não havendo possibilidade de escolha de outros órgãos.</t>
+          <t>O procedimento de conciliação é obrigatório e deve prosseguir mesmo que a outra parte recuse o convite inicial.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O Artigo 287 lista quatro opções de meios que o Estado pode escolher.</t>
+          <t>Segundo o **art. 284, parágrafo 3º**, se o convite não for aceito ou as partes não acordarem, o procedimento de conciliação deve ser considerado terminado.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -692,22 +692,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Se as partes não tiverem aceito o mesmo procedimento para a solução da controvérsia, esta só poderá ser submetida a arbitragem (Anexo VII).</t>
+          <t>Um Estado pode escolher, por declaração escrita, o Tribunal Internacional do Direito do Mar ou a Corte Internacional de Justiça, entre outros, para solução de controvérsias.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Se as partes não concordarem com o mesmo tribunal, a controvérsia será extinta e arquivada por falta de jurisdição.</t>
+          <t>A escolha do meio para solução de controvérsias é restrita exclusivamente ao Tribunal Internacional do Direito do Mar, vedada a Corte Internacional de Justiça.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O Artigo 287, parágrafo 5º, define a arbitragem como o meio padrão na falta de acordo.</t>
+          <t>O **art. 287, parágrafo 1º**, lista quatro meios de escolha, incluindo o Tribunal Internacional do Direito do Mar e a Corte Internacional de Justiça.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -726,22 +726,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Uma corte ou tribunal pode decretar medidas provisórias para preservar os direitos das partes ou impedir danos graves ao meio marinho.</t>
+          <t>Se as partes na controvérsia não tiverem aceito o mesmo procedimento para a solução, esta só poderá ser submetida à arbitragem (Anexo VII).</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Medidas provisórias só podem ser decretadas após o julgamento final do mérito da causa para garantir a execução da sentença.</t>
+          <t>Se as partes não tiverem aceito o mesmo procedimento, a controvérsia será automaticamente submetida à Corte Internacional de Justiça.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O Artigo 290 permite medidas provisórias antes da decisão definitiva (prima facie).</t>
+          <t>Conforme o **art. 287, parágrafo 5º**, se as partes não aceitarem o mesmo procedimento, a controvérsia só poderá ser submetida a arbitragem (Anexo VII).</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -760,22 +760,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Em controvérsias científicas ou técnicas, a corte pode selecionar peritos para participarem sem direito a voto.</t>
+          <t>Em caso de controvérsia sobre a jurisdição de uma corte ou tribunal, a questão será resolvida por decisão dessa própria corte ou tribunal.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Os peritos científicos selecionados pela corte têm poder de voto igual ao dos juízes nas decisões finais.</t>
+          <t>Se houver dúvida sobre a jurisdição de uma corte, a questão deve ser resolvida pelo Conselho de Segurança das Nações Unidas.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O Artigo 289 permite a participação de peritos, mas sem direito a voto.</t>
+          <t>Segundo o **art. 288, parágrafo 4º**, a questão sobre jurisdição será resolvida por decisão dessa corte ou tribunal.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -794,22 +794,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O pedido de pronta libertação de uma embarcação só pode ser feito pelo Estado de bandeira ou em seu nome.</t>
+          <t>As medidas provisórias decretadas pela corte ou tribunal devem ser cumpridas sem demora pelas partes na controvérsia.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Qualquer membro da tripulação ou o proprietário da carga pode entrar com pedido de pronta libertação em tribunal internacional, independentemente do Estado de bandeira.</t>
+          <t>As medidas provisórias são meras recomendações e as partes podem decidir aguardar a sentença final para cumpri-las.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O Artigo 292, parágrafo 2º, restringe a legitimidade ao Estado de bandeira ou seu representante.</t>
+          <t>O **art. 290, parágrafo 6º**, determina expressamente que as partes devem cumprir sem demora quaisquer medidas provisórias decretadas.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -828,22 +828,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Uma controvérsia só pode ser submetida aos procedimentos da seção 2 depois de esgotados os recursos internos exigidos pelo direito internacional.</t>
+          <t>O pedido de pronta libertação de embarcação só pode ser feito pelo Estado de bandeira ou em seu nome.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>O acesso aos tribunais internacionais é direto e imediato, não sendo necessário aguardar ou utilizar os recursos judiciais internos do país.</t>
+          <t>O pedido de pronta libertação pode ser feito pelo armador ou pelo capitão do navio, independentemente do Estado de bandeira.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>O Artigo 295 exige o esgotamento prévio dos recursos internos.</t>
+          <t>Conforme o **art. 292, parágrafo 2º**, o pedido de libertação só pode ser feito pelo Estado de bandeira da embarcação ou em seu nome.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -862,22 +862,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Na pronta libertação, a corte ocupar-se-á exclusivamente da libertação, sem prejuízo do mérito da ação no foro nacional.</t>
+          <t>A corte ou tribunal aplicará a Convenção e outras normas de direito internacional não incompatíveis com ela.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ao decidir sobre a pronta libertação, o tribunal internacional deve julgar também o mérito da infração e determinar a inocência ou culpa da tripulação.</t>
+          <t>A corte ou tribunal deve aplicar exclusivamente a legislação interna do Estado costeiro envolvido na controvérsia.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O Artigo 292, parágrafo 3º, separa a questão da libertação do mérito da causa.</t>
+          <t>De acordo com o **art. 293, parágrafo 1º**, a corte deve aplicar a presente Convenção e outras normas de direito internacional compatíveis.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -896,22 +896,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Qualquer decisão proferida por uma corte ou tribunal com jurisdição nos termos da seção 2 será definitiva e obrigatória para as partes.</t>
+          <t>Uma controvérsia só pode ser submetida aos procedimentos da seção 2 depois de esgotados os recursos internos, conforme o direito internacional.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>As decisões dos tribunais internacionais do direito do mar são meras recomendações, cabendo às partes decidir se as acatam ou não.</t>
+          <t>As controvérsias podem ser submetidas diretamente aos tribunais internacionais, sem necessidade de esgotar os recursos internos do Estado.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>O Artigo 296 estabelece o caráter definitivo e a força obrigatória das decisões.</t>
+          <t>O **art. 295** exige o esgotamento dos recursos internos de conformidade com o direito internacional antes da submissão aos procedimentos da seção.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -930,22 +930,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O Estado costeiro não é obrigado a aceitar procedimentos de solução para controvérsias sobre seus direitos soberanos de pesca na ZEE.</t>
+          <t>Qualquer decisão proferida por uma corte ou tribunal competente será definitiva e deverá ser cumprida por todas as partes na controvérsia.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>O Estado costeiro deve submeter todas as suas decisões sobre quotas de pesca na ZEE à arbitragem internacional obrigatória se contestado.</t>
+          <t>As decisões dos tribunais internacionais previstos na Convenção são provisórias e sujeitas a recurso automático para a Assembleia Geral da ONU.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>O Artigo 297, parágrafo 3º 'a', exclui direitos soberanos de pesca dos procedimentos obrigatórios.</t>
+          <t>Segundo o **art. 296, parágrafo 1º**, qualquer decisão proferida será definitiva e deverá ser cumprida pelas partes.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -964,22 +964,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Controvérsias sobre o exercício de poder discricionário para autorizar investigação científica não são obrigadas a ir a tribunal.</t>
+          <t>O Estado costeiro não é obrigado a aceitar certos procedimentos de solução para controvérsias sobre investigação científica marinha que envolvam seu poder discricionário.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A recusa de autorização para pesquisa científica na plataforma continental é sempre passível de recurso obrigatório ao Tribunal do Direito do Mar.</t>
+          <t>Todas as controvérsias sobre investigação científica marinha, sem exceção, devem ser submetidas obrigatoriamente a decisões judiciais vinculantes.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>O Artigo 297, parágrafo 2º 'a', cria exceção para o poder discricionário em investigação científica.</t>
+          <t>Conforme o **art. 297, parágrafo 2º, alínea 'a'**, o Estado costeiro não será obrigado a aceitar submeter à solução controvérsias sobre seu poder discricionário (art. 246).</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -998,22 +998,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Um Estado pode declarar que não aceita procedimentos obrigatórios para controvérsias sobre delimitação de zonas marítimas.</t>
+          <t>O Estado costeiro não é obrigado a submeter a procedimentos de solução controvérsias relativas aos seus direitos soberanos sobre pesca na ZEE.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Disputas sobre fronteiras marítimas são de competência absoluta dos tribunais internacionais e não podem ser excluídas por declaração dos Estados.</t>
+          <t>O Estado costeiro é obrigado a submeter à arbitragem internacional qualquer disputa sobre a fixação da captura permissível na sua ZEE.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>O Artigo 298 permite a exclusão facultativa de controvérsias de delimitação.</t>
+          <t>De acordo com o **art. 297, parágrafo 3º, alínea 'a'**, o Estado costeiro não será obrigado a aceitar submeter aos procedimentos controvérsias relativas aos seus direitos soberanos de pesca.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1032,22 +1032,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Controvérsias relativas a atividades militares podem ser excluídas dos procedimentos de solução por declaração escrita.</t>
+          <t>Um Estado pode declarar que não aceita procedimentos obrigatórios para controvérsias relativas a delimitação de zonas marítimas.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Atividades militares no mar estão sujeitas à jurisdição obrigatória dos tribunais, não sendo permitido aos Estados excluí-las.</t>
+          <t>Controvérsias sobre delimitação de zonas marítimas não podem ser excluídas dos procedimentos obrigatórios de solução de controvérsias.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>O Artigo 298, parágrafo 1º 'b', permite a exclusão de atividades militares.</t>
+          <t>O **art. 298, parágrafo 1º, alínea 'a'**, permite que um Estado declare não aceitar os procedimentos da seção 2 para controvérsias sobre delimitação de zonas marítimas.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1066,22 +1066,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Em nenhum caso a comissão de conciliação substituirá o poder discricionário do Estado costeiro.</t>
+          <t>Um Estado pode excluir da jurisdição obrigatória as controvérsias relativas a atividades militares.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A comissão de conciliação tem poderes superiores aos do Estado costeiro, podendo anular e substituir suas decisões discricionárias sobre pesca.</t>
+          <t>As atividades militares estão sempre sujeitas à jurisdição obrigatória dos tribunais internacionais, não sendo passíveis de exceção.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>O Artigo 297, parágrafo 3º 'c', proíbe a substituição do poder discricionário.</t>
+          <t>Segundo o **art. 298, parágrafo 1º, alínea 'b'**, um Estado pode declarar exceção para controvérsias relativas a atividades militares.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1100,22 +1100,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVI - Disposições Gerais</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Os Estados Partes devem cumprir de boa fé as obrigações e exercer os direitos de modo a não constituir abuso de direito.</t>
+          <t>Os Estados Partes devem cumprir suas obrigações de boa fé e não exercer seus direitos de modo a constituir abuso de direito.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Os Estados podem exercer seus direitos de forma absoluta, mesmo que isso configure abuso de direito, desde que previsto na lei.</t>
+          <t>O conceito de abuso de direito não se aplica à Convenção, permitindo que os Estados exerçam seus direitos sem restrições éticas.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>O Artigo 300 estabelece os princípios da boa fé e do não abuso de direito.</t>
+          <t>Conforme o **art. 300**, os Estados devem cumprir de boa fé as obrigações e exercer direitos de modo a não constituir abuso de direito.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1134,22 +1134,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVI - Disposições Gerais</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nada na Convenção exige que um Estado forneça informações cuja divulgação seja contrária aos interesses essenciais da sua segurança.</t>
+          <t>Os Estados Partes devem abster-se de qualquer ameaça ou uso da força contra a integridade territorial de qualquer Estado.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A transparência é absoluta na Convenção, obrigando os Estados a fornecerem segredos militares e de segurança nacional se solicitados.</t>
+          <t>O uso da força é permitido para garantir interesses econômicos na Zona Econômica Exclusiva, independentemente da Carta da ONU.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>O Artigo 302 protege informações de segurança essencial.</t>
+          <t>O **art. 301** estabelece que os Estados devem abster-se de ameaça ou uso da força, incompatível com a Carta das Nações Unidas.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVI - Disposições Gerais</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Os Estados têm o dever de proteger os objetos de caráter arqueológico e histórico achados no mar.</t>
+          <t>Nada na Convenção exige que um Estado forneça informações cuja divulgação seja contrária aos interesses essenciais da sua segurança.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Objetos arqueológicos encontrados no mar são considerados *res nullius* (coisa de ninguém) e podem ser destruídos ou apropriados livremente.</t>
+          <t>Os Estados são obrigados a fornecer todas as informações solicitadas, inclusive aquelas que comprometam sua segurança nacional.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>O Artigo 303 impõe o dever de proteção de objetos arqueológicos.</t>
+          <t>Segundo o **art. 302**, nada deve ser interpretado no sentido de exigir o fornecimento de informações contrárias aos interesses essenciais de segurança.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1202,22 +1202,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A Convenção entra em vigor 12 meses após a data de depósito do sexagésimo instrumento de ratificação ou adesão.</t>
+          <t>A Convenção está aberta à assinatura de todos os Estados e também da Namíbia, representada pelo Conselho das Nações Unidas para a Namíbia.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A Convenção entra em vigor imediatamente após a assinatura do primeiro Estado.</t>
+          <t>A assinatura da Convenção é restrita apenas a Estados soberanos plenamente independentes, excluindo territórios como a Namíbia.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>O Artigo 308 define o prazo e o quórum para entrada em vigor.</t>
+          <t>O **art. 305, parágrafo 1º, alínea 'b'**, prevê expressamente a assinatura pela Namíbia, representada pelo Conselho das Nações Unidas.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1236,22 +1236,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>As disposições sobre responsabilidade por danos não prejudicam a elaboração de novas normas de direito internacional.</t>
+          <t>A Convenção entra em vigor 12 meses após a data de depósito do sexagésimo instrumento de ratificação ou adesão.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A Convenção encerra e proíbe a criação de quaisquer novas normas internacionais sobre responsabilidade por danos.</t>
+          <t>A Convenção entra em vigor imediatamente após o depósito do décimo instrumento de ratificação.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>O Artigo 304 permite a evolução das normas de responsabilidade.</t>
+          <t>Conforme o **art. 308, parágrafo 1º**, a entrada em vigor ocorre 12 meses após o depósito do sexagésimo instrumento.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1270,22 +1270,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVI - Disposições Gerais</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Os instrumentos de ratificação e adesão devem ser depositados junto do Secretário Geral das Nações Unidas.</t>
+          <t>As disposições sobre responsabilidade por danos não prejudicam a aplicação das normas vigentes de direito internacional.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Os instrumentos de ratificação devem ser enviados diretamente ao governo da Jamaica, sede da Autoridade.</t>
+          <t>A Convenção revoga todas as normas anteriores de direito internacional relativas à responsabilidade por danos.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Os Artigos 306 e 307 designam o Secretário Geral da ONU.</t>
+          <t>De acordo com o **art. 304**, as disposições relativas à responsabilidade não prejudicam a aplicação das normas vigentes.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1304,22 +1304,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A Convenção não admite quaisquer reservas ou exceções além das expressamente autorizadas.</t>
+          <t>A Convenção não admite quaisquer reservas ou exceções além das expressamente autorizadas por ela.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Os Estados são livres para fazer reservas a qualquer artigo da Convenção que considerem inconveniente.</t>
+          <t>Os Estados podem fazer quaisquer reservas que desejarem a qualquer artigo da Convenção no momento da ratificação.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>O Artigo 309 proíbe reservas gerais.</t>
+          <t>O **art. 309** estabelece que a Convenção não admite reservas ou exceções além das expressamente autorizadas.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1338,22 +1338,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Esta Convenção prevalece, nas relações entre os Estados Partes, sobre as Convenções de Genebra de 1958.</t>
+          <t>Declarações são permitidas desde que não visem excluir ou modificar o efeito jurídico das disposições da Convenção.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>As Convenções de Genebra de 1958 têm hierarquia superior e prevalecem sobre esta Convenção em caso de conflito.</t>
+          <t>Declarações podem ser usadas para modificar o efeito jurídico das disposições da Convenção para o Estado declarante.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>O Artigo 311 estabelece a prevalência desta Convenção sobre as de 1958.</t>
+          <t>Segundo o **art. 310**, declarações são permitidas desde que não tenham por finalidade excluir ou modificar o efeito jurídico das disposições.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1372,22 +1372,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Não podem ser feitas emendas ao princípio fundamental relativo ao patrimônio comum da humanidade.</t>
+          <t>A presente Convenção prevalece, nas relações entre os Estados Partes, sobre as Convenções de Genebra de 1958.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>O princípio do patrimônio comum da humanidade pode ser abolido se houver voto majoritário dos Estados Partes.</t>
+          <t>As Convenções de Genebra de 1958 prevalecem sobre a presente Convenção em caso de conflito entre Estados Partes.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>O Artigo 311, parágrafo 6º, blinda o princípio do patrimônio comum.</t>
+          <t>Conforme o **art. 311, parágrafo 1º**, a presente Convenção prevalece sobre as Convenções de Genebra sobre o Direito do Mar de 1958.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1406,22 +1406,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>No procedimento simplificado, se um Estado Parte apresentar objeção à emenda, esta será considerada rejeitada.</t>
+          <t>Um Estado Parte pode propor emendas por procedimento simplificado sem a convocação de uma conferência.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>No procedimento simplificado, a emenda é aprovada mesmo com objeções, desde que a maioria concorde.</t>
+          <t>Emendas à Convenção só podem ser propostas através da convocação obrigatória de uma conferência diplomática.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>O Artigo 313 determina a rejeição automática em caso de objeção.</t>
+          <t>O **art. 313, parágrafo 1º**, permite a proposição de emenda para ser adotada por procedimento simplificado sem convocação de conferência.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1440,22 +1440,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Emendas relativas exclusivamente à Área precisam ser aprovadas pelo Conselho e pela Assembléia da Autoridade.</t>
+          <t>No procedimento simplificado, se um Estado apresentar objeção à emenda no prazo de 12 meses, ela será considerada rejeitada.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Emendas sobre a Área podem ser aprovadas apenas pelos Estados Partes em conferência, sem consulta à Autoridade.</t>
+          <t>No procedimento simplificado, uma emenda é aprovada mesmo que existam objeções, desde que a maioria concorde.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>O Artigo 314 exige aprovação dos órgãos da Autoridade.</t>
+          <t>De acordo com o **art. 313, parágrafo 2º**, se um Estado Parte apresentar objeção, a emenda será considerada rejeitada.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1474,22 +1474,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Emendas gerais entram em vigor 30 dias após ratificação por dois terços dos Estados Partes.</t>
+          <t>Emendas entram em vigor para os Estados que as ratificarem 30 dias após o depósito dos instrumentos de dois terços dos Estados Partes (ou 60).</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Emendas gerais entram em vigor automaticamente para todos assim que propostas pelo Secretário Geral.</t>
+          <t>As emendas entram em vigor automaticamente para todos os Estados Partes assim que aprovadas pela conferência, sem necessidade de ratificação.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>O Artigo 316 estabelece o quórum de dois terços para entrada em vigor.</t>
+          <t>Conforme o **art. 316, parágrafo 1º**, as emendas entram em vigor no trigésimo dia seguinte ao depósito dos instrumentos de ratificação (regra geral).</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1508,22 +1508,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A denúncia da Convenção terá efeito um ano após a data do recebimento da notificação.</t>
+          <t>A denúncia da Convenção terá efeito um ano após a data do recebimento da notificação pelo Secretário Geral.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A denúncia da Convenção tem efeito imediato, liberando o Estado de todas as obrigações no dia seguinte.</t>
+          <t>A denúncia da Convenção tem efeito imediato a partir do momento em que o Estado notifica o Secretário Geral.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>O Artigo 317 estabelece o prazo de um ano para eficácia da denúncia.</t>
+          <t>O **art. 317, parágrafo 1º**, determina que a denúncia terá efeito um ano após a data do recebimento da notificação.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1542,22 +1542,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Os Anexos são parte integrante da Convenção e referências à Convenção incluem os Anexos.</t>
+          <t>O Secretário Geral das Nações Unidas é o depositário da presente Convenção e das suas emendas.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Os Anexos são documentos separados e opcionais, não possuindo o mesmo peso legal que o texto principal da Convenção.</t>
+          <t>O depositário da Convenção é o Presidente da Assembleia da Autoridade Internacional dos Fundos Marinhos.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>O Artigo 318 integra juridicamente os Anexos à Convenção.</t>
+          <t>Segundo o **art. 319, parágrafo 1º**, o Secretário Geral das Nações Unidas é o depositário da Convenção.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1576,22 +1576,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>O Secretário Geral das Nações Unidas é o depositário da presente Convenção.</t>
+          <t>Os textos em Árabe, Chinês, Espanhol, Francês, Inglês e Russo são igualmente autênticos.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>O Diretor da UNESCO é o depositário da Convenção devido ao seu caráter científico e cultural.</t>
+          <t>Apenas o texto em Inglês é considerado autêntico para fins de interpretação da Convenção.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>O Artigo 319 designa o Secretário Geral da ONU como depositário.</t>
+          <t>Conforme o **art. 320**, os textos em Árabe, Chinês, Espanhol, Francês, Inglês e Russo fazem igualmente fé.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
